--- a/User Files/AnonymousUser_datafiles/compiled_dir/RESULT DF DISPLAY.XLSX
+++ b/User Files/AnonymousUser_datafiles/compiled_dir/RESULT DF DISPLAY.XLSX
@@ -459,7 +459,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>fess</t>
+          <t>0010</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
           <t>2020-10-12</t>
         </is>
       </c>
-      <c r="H2" t="e">
-        <v>#NAME?</v>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>2020-12-12</t>
         </is>
       </c>
-      <c r="H3" t="e">
-        <v>#NAME?</v>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -573,9 +573,7 @@
           <t>2050-12-12</t>
         </is>
       </c>
-      <c r="H4" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -611,9 +609,7 @@
           <t>2050-12-13</t>
         </is>
       </c>
-      <c r="H5" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -649,9 +645,7 @@
           <t>2050-12-14</t>
         </is>
       </c>
-      <c r="H6" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -687,9 +681,7 @@
           <t>2050-12-15</t>
         </is>
       </c>
-      <c r="H7" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -725,9 +717,7 @@
           <t>2050-12-16</t>
         </is>
       </c>
-      <c r="H8" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -763,9 +753,7 @@
           <t>2050-12-17</t>
         </is>
       </c>
-      <c r="H9" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -801,9 +789,7 @@
           <t>2050-12-18</t>
         </is>
       </c>
-      <c r="H10" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -839,9 +825,7 @@
           <t>2050-12-19</t>
         </is>
       </c>
-      <c r="H11" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -877,9 +861,7 @@
           <t>2050-12-20</t>
         </is>
       </c>
-      <c r="H12" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -915,9 +897,7 @@
           <t>2050-12-21</t>
         </is>
       </c>
-      <c r="H13" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -953,9 +933,7 @@
           <t>2050-12-22</t>
         </is>
       </c>
-      <c r="H14" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -991,9 +969,7 @@
           <t>2050-12-23</t>
         </is>
       </c>
-      <c r="H15" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1029,9 +1005,7 @@
           <t>2050-12-24</t>
         </is>
       </c>
-      <c r="H16" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1067,9 +1041,7 @@
           <t>2050-12-25</t>
         </is>
       </c>
-      <c r="H17" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1105,9 +1077,7 @@
           <t>2050-12-26</t>
         </is>
       </c>
-      <c r="H18" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1143,9 +1113,7 @@
           <t>2050-12-27</t>
         </is>
       </c>
-      <c r="H19" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1181,9 +1149,7 @@
           <t>2050-12-28</t>
         </is>
       </c>
-      <c r="H20" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1219,9 +1185,7 @@
           <t>2050-12-29</t>
         </is>
       </c>
-      <c r="H21" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1257,9 +1221,7 @@
           <t>2050-12-30</t>
         </is>
       </c>
-      <c r="H22" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1295,9 +1257,7 @@
           <t>2050-12-31</t>
         </is>
       </c>
-      <c r="H23" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1333,9 +1293,7 @@
           <t>2051-01-01</t>
         </is>
       </c>
-      <c r="H24" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1371,9 +1329,7 @@
           <t>2051-01-02</t>
         </is>
       </c>
-      <c r="H25" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1409,9 +1365,7 @@
           <t>2051-01-03</t>
         </is>
       </c>
-      <c r="H26" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1447,9 +1401,7 @@
           <t>2051-01-04</t>
         </is>
       </c>
-      <c r="H27" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1485,9 +1437,7 @@
           <t>2051-01-05</t>
         </is>
       </c>
-      <c r="H28" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1523,9 +1473,7 @@
           <t>2051-01-06</t>
         </is>
       </c>
-      <c r="H29" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1561,9 +1509,7 @@
           <t>2051-01-07</t>
         </is>
       </c>
-      <c r="H30" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1599,9 +1545,7 @@
           <t>2051-01-08</t>
         </is>
       </c>
-      <c r="H31" t="e">
-        <v>#NAME?</v>
-      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
